--- a/Code/Results/Cases/Case_4_138/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_138/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.16280449718351</v>
+        <v>20.45204894900344</v>
       </c>
       <c r="C2">
-        <v>15.02760972713869</v>
+        <v>9.080804078643411</v>
       </c>
       <c r="D2">
-        <v>7.152429908210661</v>
+        <v>6.018171943034317</v>
       </c>
       <c r="E2">
-        <v>6.911788110817422</v>
+        <v>10.68549349764371</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>50.52112693128264</v>
+        <v>50.79808072400368</v>
       </c>
       <c r="H2">
-        <v>14.44736314676394</v>
+        <v>19.31155231018177</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.145092043938105</v>
+        <v>9.968694094866992</v>
       </c>
       <c r="M2">
-        <v>13.76358427970277</v>
+        <v>17.19136353697392</v>
       </c>
       <c r="N2">
-        <v>13.18029443626853</v>
+        <v>20.15751439965944</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.5298433515927</v>
+        <v>20.03759347642024</v>
       </c>
       <c r="C3">
-        <v>14.06809133626614</v>
+        <v>8.606517243429112</v>
       </c>
       <c r="D3">
-        <v>6.640886944819472</v>
+        <v>5.906311185156739</v>
       </c>
       <c r="E3">
-        <v>6.906879900009676</v>
+        <v>10.68769380527232</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>48.11703241547521</v>
+        <v>50.37921649700017</v>
       </c>
       <c r="H3">
-        <v>14.09362274118994</v>
+        <v>19.30643426136705</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.068506492931757</v>
+        <v>9.980167639285536</v>
       </c>
       <c r="M3">
-        <v>13.13895631056307</v>
+        <v>17.11871649359626</v>
       </c>
       <c r="N3">
-        <v>13.4367745159474</v>
+        <v>20.22655325915195</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.52294087404239</v>
+        <v>19.78479836241165</v>
       </c>
       <c r="C4">
-        <v>13.45088775510972</v>
+        <v>8.299909035692977</v>
       </c>
       <c r="D4">
-        <v>6.31106879563412</v>
+        <v>5.838510401150267</v>
       </c>
       <c r="E4">
-        <v>6.904642387436094</v>
+        <v>10.68923898951661</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>46.64318040711505</v>
+        <v>50.13726530273155</v>
       </c>
       <c r="H4">
-        <v>13.886838325434</v>
+        <v>19.30779418883041</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.024537068826015</v>
+        <v>9.988666276070864</v>
       </c>
       <c r="M4">
-        <v>12.75075173586321</v>
+        <v>17.07782932746373</v>
       </c>
       <c r="N4">
-        <v>13.59760289277733</v>
+        <v>20.27092681785572</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.10287577858586</v>
+        <v>19.6823605688284</v>
       </c>
       <c r="C5">
-        <v>13.19226372764594</v>
+        <v>8.171151691034046</v>
       </c>
       <c r="D5">
-        <v>6.1889795132412</v>
+        <v>5.811143086914735</v>
       </c>
       <c r="E5">
-        <v>6.903912749836065</v>
+        <v>10.68991747830264</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>46.04370480387042</v>
+        <v>50.04258518485096</v>
       </c>
       <c r="H5">
-        <v>13.80516409107971</v>
+        <v>19.30947872738004</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.007376519422624</v>
+        <v>9.99249515962582</v>
       </c>
       <c r="M5">
-        <v>12.59156003239146</v>
+        <v>17.06211428875167</v>
       </c>
       <c r="N5">
-        <v>13.66400548719261</v>
+        <v>20.28950918629425</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.0325410415295</v>
+        <v>19.66539034557965</v>
       </c>
       <c r="C6">
-        <v>13.14888890383281</v>
+        <v>8.149543370625448</v>
       </c>
       <c r="D6">
-        <v>6.16940700911337</v>
+        <v>5.806615765692714</v>
       </c>
       <c r="E6">
-        <v>6.903802241347702</v>
+        <v>10.69003308865582</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>45.9442492371053</v>
+        <v>50.02710255321645</v>
       </c>
       <c r="H6">
-        <v>13.79175789167025</v>
+        <v>19.30982664819498</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.004572444974544</v>
+        <v>9.993153025500126</v>
       </c>
       <c r="M6">
-        <v>12.56507220070124</v>
+        <v>17.05956232434637</v>
       </c>
       <c r="N6">
-        <v>13.67508440040497</v>
+        <v>20.29262499072463</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.5173149566643</v>
+        <v>19.78341430284123</v>
       </c>
       <c r="C7">
-        <v>13.44742869924453</v>
+        <v>8.298187916509194</v>
       </c>
       <c r="D7">
-        <v>6.309218320918671</v>
+        <v>5.838140201834775</v>
       </c>
       <c r="E7">
-        <v>6.904631825920875</v>
+        <v>10.68924794221167</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>46.63509026532172</v>
+        <v>50.13597244640479</v>
       </c>
       <c r="H7">
-        <v>13.88572637901962</v>
+        <v>19.30781233335457</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.024302583567241</v>
+        <v>9.988716433343523</v>
       </c>
       <c r="M7">
-        <v>12.74860858660404</v>
+        <v>17.0776135407258</v>
       </c>
       <c r="N7">
-        <v>13.59849489501191</v>
+        <v>20.27117540126042</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.58497005114139</v>
+        <v>20.30888808680814</v>
       </c>
       <c r="C8">
-        <v>14.70255174005158</v>
+        <v>8.920496647093884</v>
       </c>
       <c r="D8">
-        <v>6.979273652501385</v>
+        <v>5.97944339899334</v>
       </c>
       <c r="E8">
-        <v>6.909926410112583</v>
+        <v>10.68621184968114</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>49.69202176055112</v>
+        <v>50.65054919362019</v>
       </c>
       <c r="H8">
-        <v>14.32321621400329</v>
+        <v>19.30885222968424</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.118044995221726</v>
+        <v>9.972348469157199</v>
       </c>
       <c r="M8">
-        <v>13.54928287832203</v>
+        <v>17.16555051286444</v>
       </c>
       <c r="N8">
-        <v>13.26804663146069</v>
+        <v>20.1809079654957</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.56465942291355</v>
+        <v>21.34599499923041</v>
       </c>
       <c r="C9">
-        <v>16.94477761475286</v>
+        <v>10.01669271051243</v>
       </c>
       <c r="D9">
-        <v>8.171629167532245</v>
+        <v>6.261777323931987</v>
       </c>
       <c r="E9">
-        <v>6.927133969114831</v>
+        <v>10.68179989444929</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>55.68693202441977</v>
+        <v>51.77629745687496</v>
       </c>
       <c r="H9">
-        <v>15.26508216190173</v>
+        <v>19.3466705289309</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.326604569043154</v>
+        <v>9.951783516331911</v>
       </c>
       <c r="M9">
-        <v>15.07602866624308</v>
+        <v>17.36692692663159</v>
       </c>
       <c r="N9">
-        <v>12.645676610652</v>
+        <v>20.01958281151399</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.25505036737994</v>
+        <v>22.10333673494963</v>
       </c>
       <c r="C10">
-        <v>18.46505998398659</v>
+        <v>10.744379215463</v>
       </c>
       <c r="D10">
-        <v>8.978316219053534</v>
+        <v>6.470083413680575</v>
       </c>
       <c r="E10">
-        <v>6.945010983870104</v>
+        <v>10.67950023837797</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>60.07871577680841</v>
+        <v>52.66836121984847</v>
       </c>
       <c r="H10">
-        <v>16.01066023346808</v>
+        <v>19.39630257265729</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.495668810897478</v>
+        <v>9.94369933882586</v>
       </c>
       <c r="M10">
-        <v>16.48461720861388</v>
+        <v>17.53167642847173</v>
       </c>
       <c r="N10">
-        <v>12.20290065165592</v>
+        <v>19.91055200522152</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.43142120580401</v>
+        <v>22.44514116673391</v>
       </c>
       <c r="C11">
-        <v>19.13093758406426</v>
+        <v>11.05828449572994</v>
       </c>
       <c r="D11">
-        <v>9.331432075585944</v>
+        <v>6.564566443590675</v>
       </c>
       <c r="E11">
-        <v>6.954569607009856</v>
+        <v>10.67865904801015</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>62.07447076724662</v>
+        <v>53.08685630714874</v>
       </c>
       <c r="H11">
-        <v>16.36226385837792</v>
+        <v>19.42361812605316</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.576217671863101</v>
+        <v>9.941544660621208</v>
       </c>
       <c r="M11">
-        <v>17.11923638345167</v>
+        <v>17.61007210940384</v>
       </c>
       <c r="N11">
-        <v>12.0044363739088</v>
+        <v>19.86299814216598</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.8703588231186</v>
+        <v>22.57404878949514</v>
       </c>
       <c r="C12">
-        <v>19.37957700093112</v>
+        <v>11.17467474103094</v>
       </c>
       <c r="D12">
-        <v>9.463266823663416</v>
+        <v>6.60026767093104</v>
       </c>
       <c r="E12">
-        <v>6.958423291287243</v>
+        <v>10.6783700198756</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>62.83018205858045</v>
+        <v>53.24702683601242</v>
       </c>
       <c r="H12">
-        <v>16.49728549054913</v>
+        <v>19.43464114093575</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.607262773560066</v>
+        <v>9.940947388682874</v>
       </c>
       <c r="M12">
-        <v>17.3559052321739</v>
+        <v>17.64023625549864</v>
       </c>
       <c r="N12">
-        <v>11.92970208550319</v>
+        <v>19.84528376232135</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.7761108336555</v>
+        <v>22.5463117162963</v>
       </c>
       <c r="C13">
-        <v>19.32618112161051</v>
+        <v>11.14971848191016</v>
       </c>
       <c r="D13">
-        <v>9.434955710218821</v>
+        <v>6.592582798517665</v>
       </c>
       <c r="E13">
-        <v>6.957582410315763</v>
+        <v>10.67843095397409</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>62.66742162461158</v>
+        <v>53.21245793341404</v>
       </c>
       <c r="H13">
-        <v>16.4681209874365</v>
+        <v>19.43223697030815</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.600552152047497</v>
+        <v>9.941066302941081</v>
       </c>
       <c r="M13">
-        <v>17.30509354197117</v>
+        <v>17.63371894156528</v>
       </c>
       <c r="N13">
-        <v>11.94577877910903</v>
+        <v>19.8490858417183</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.46766182342819</v>
+        <v>22.45575777357987</v>
       </c>
       <c r="C14">
-        <v>19.15146257525364</v>
+        <v>11.06790974977429</v>
       </c>
       <c r="D14">
-        <v>9.342315260477728</v>
+        <v>6.567505366769131</v>
       </c>
       <c r="E14">
-        <v>6.954881778676842</v>
+        <v>10.67863467776166</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>62.13664218265749</v>
+        <v>53.10000040521512</v>
       </c>
       <c r="H14">
-        <v>16.37333394890613</v>
+        <v>19.42451139827997</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.57876076274442</v>
+        <v>9.941491142583336</v>
       </c>
       <c r="M14">
-        <v>17.1387792856779</v>
+        <v>17.61254427431391</v>
       </c>
       <c r="N14">
-        <v>11.99827952743862</v>
+        <v>19.86153489710209</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.27788739975716</v>
+        <v>22.40021842559819</v>
       </c>
       <c r="C15">
-        <v>19.04399070618265</v>
+        <v>11.01747630564825</v>
       </c>
       <c r="D15">
-        <v>9.285328590259093</v>
+        <v>6.552133541508105</v>
       </c>
       <c r="E15">
-        <v>6.953258982420754</v>
+        <v>10.67876330917658</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>61.81153047929295</v>
+        <v>53.03133383094406</v>
       </c>
       <c r="H15">
-        <v>16.3155216716506</v>
+        <v>19.4198676411606</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.565484267551628</v>
+        <v>9.941779833985025</v>
       </c>
       <c r="M15">
-        <v>17.03643759135398</v>
+        <v>17.59963578059748</v>
       </c>
       <c r="N15">
-        <v>12.03049240047052</v>
+        <v>19.86919846755847</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.17724078050959</v>
+        <v>22.08093259386994</v>
       </c>
       <c r="C16">
-        <v>18.42104100105255</v>
+        <v>10.72351867779886</v>
       </c>
       <c r="D16">
-        <v>8.95496961941363</v>
+        <v>6.463899900802983</v>
       </c>
       <c r="E16">
-        <v>6.944417375392675</v>
+        <v>10.67955933957506</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>59.94826472419552</v>
+        <v>52.64125597206585</v>
       </c>
       <c r="H16">
-        <v>15.98793935191646</v>
+        <v>19.39461261181791</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.490479590233435</v>
+        <v>9.943870769473991</v>
       </c>
       <c r="M16">
-        <v>16.44262277748503</v>
+        <v>17.52662093215033</v>
       </c>
       <c r="N16">
-        <v>12.21592962806539</v>
+        <v>19.91370083929865</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.49006525923282</v>
+        <v>21.88426672510836</v>
       </c>
       <c r="C17">
-        <v>18.03241860085489</v>
+        <v>10.53878619363771</v>
       </c>
       <c r="D17">
-        <v>8.748831656905583</v>
+        <v>6.409673250521209</v>
       </c>
       <c r="E17">
-        <v>6.939377816286438</v>
+        <v>10.68010019690803</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>58.80480574190263</v>
+        <v>52.40511534837842</v>
       </c>
       <c r="H17">
-        <v>15.79021861461997</v>
+        <v>19.38033167183895</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.445411795709295</v>
+        <v>9.945543319450206</v>
       </c>
       <c r="M17">
-        <v>16.0716431628579</v>
+        <v>17.48269932781994</v>
       </c>
       <c r="N17">
-        <v>12.33044056390615</v>
+        <v>19.94152474482247</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.09032848133128</v>
+        <v>21.77090191609439</v>
       </c>
       <c r="C18">
-        <v>17.80646110438348</v>
+        <v>10.43092191030558</v>
       </c>
       <c r="D18">
-        <v>8.628955727155455</v>
+        <v>6.378459645243534</v>
       </c>
       <c r="E18">
-        <v>6.936611459700955</v>
+        <v>10.68043057042601</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>58.14689496473569</v>
+        <v>52.27049603093893</v>
       </c>
       <c r="H18">
-        <v>15.67765876938584</v>
+        <v>19.37256375784283</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.419831307186535</v>
+        <v>9.946648688138282</v>
       </c>
       <c r="M18">
-        <v>15.85574953388246</v>
+        <v>17.45776272073105</v>
       </c>
       <c r="N18">
-        <v>12.3965824675184</v>
+        <v>19.95772083189849</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.95420451837864</v>
+        <v>21.73248024929264</v>
       </c>
       <c r="C19">
-        <v>17.72953294376412</v>
+        <v>10.39412480596682</v>
       </c>
       <c r="D19">
-        <v>8.588139529930618</v>
+        <v>6.367888331861958</v>
       </c>
       <c r="E19">
-        <v>6.935696727263966</v>
+        <v>10.68054574046749</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>57.924094281419</v>
+        <v>52.22512666157259</v>
       </c>
       <c r="H19">
-        <v>15.63974555234054</v>
+        <v>19.37001034523192</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.411228282595251</v>
+        <v>9.947047578399051</v>
       </c>
       <c r="M19">
-        <v>15.78221441889682</v>
+        <v>17.44937615140171</v>
       </c>
       <c r="N19">
-        <v>12.41902505009135</v>
+        <v>19.96323763776025</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.56367907510268</v>
+        <v>21.90522879903791</v>
       </c>
       <c r="C20">
-        <v>18.0740386063654</v>
+        <v>10.55861815458247</v>
       </c>
       <c r="D20">
-        <v>8.77091030831115</v>
+        <v>6.415448519083284</v>
       </c>
       <c r="E20">
-        <v>6.939900402061926</v>
+        <v>10.68004062531954</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>58.92655070491814</v>
+        <v>52.43012939060351</v>
       </c>
       <c r="H20">
-        <v>15.81114530645264</v>
+        <v>19.38180574471966</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.450173885838836</v>
+        <v>9.945350438362482</v>
       </c>
       <c r="M20">
-        <v>16.11139373919141</v>
+        <v>17.48734125735924</v>
       </c>
       <c r="N20">
-        <v>12.31822194498842</v>
+        <v>19.93854292417393</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.55843533275491</v>
+        <v>22.4823709904754</v>
       </c>
       <c r="C21">
-        <v>19.20287541740417</v>
+        <v>11.09200634213877</v>
       </c>
       <c r="D21">
-        <v>9.369576168089594</v>
+        <v>6.574873609814526</v>
       </c>
       <c r="E21">
-        <v>6.955668413558069</v>
+        <v>10.67857403783323</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>62.29254298261716</v>
+        <v>53.13298693905123</v>
       </c>
       <c r="H21">
-        <v>16.4011234198894</v>
+        <v>19.42676217271017</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.585146510085468</v>
+        <v>9.941360425511368</v>
       </c>
       <c r="M21">
-        <v>17.18772729258071</v>
+        <v>17.6187509842911</v>
       </c>
       <c r="N21">
-        <v>11.98284739424362</v>
+        <v>19.85787035569479</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.82424316163065</v>
+        <v>22.85644160246695</v>
       </c>
       <c r="C22">
-        <v>19.92025952816426</v>
+        <v>11.42615308736489</v>
       </c>
       <c r="D22">
-        <v>9.749925780158888</v>
+        <v>6.678599511037932</v>
       </c>
       <c r="E22">
-        <v>6.967354926953388</v>
+        <v>10.67778758096082</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>64.49245007980441</v>
+        <v>53.60216562040077</v>
       </c>
       <c r="H22">
-        <v>16.79771022994515</v>
+        <v>19.46010125572301</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.676536068580899</v>
+        <v>9.940027027223918</v>
       </c>
       <c r="M22">
-        <v>17.87000969460755</v>
+        <v>17.70740824768417</v>
       </c>
       <c r="N22">
-        <v>11.76611157447727</v>
+        <v>19.80685501831989</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.15201239863342</v>
+        <v>22.65712193277503</v>
       </c>
       <c r="C23">
-        <v>19.53917449905422</v>
+        <v>11.2491394489051</v>
       </c>
       <c r="D23">
-        <v>9.547885235230904</v>
+        <v>6.623293819017714</v>
       </c>
       <c r="E23">
-        <v>6.96098038502369</v>
+        <v>10.6781915709266</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>63.31817921646559</v>
+        <v>53.35090110036897</v>
       </c>
       <c r="H23">
-        <v>16.58500113971038</v>
+        <v>19.44194632674194</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.627461496587189</v>
+        <v>9.940622213543959</v>
       </c>
       <c r="M23">
-        <v>17.50773503356726</v>
+        <v>17.65984283322011</v>
       </c>
       <c r="N23">
-        <v>11.88156287441781</v>
+        <v>19.83392676277236</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.53041283853484</v>
+        <v>21.89575276627015</v>
       </c>
       <c r="C24">
-        <v>18.05523010595441</v>
+        <v>10.54965729150977</v>
       </c>
       <c r="D24">
-        <v>8.760932808100993</v>
+        <v>6.412837635591766</v>
       </c>
       <c r="E24">
-        <v>6.939663735260447</v>
+        <v>10.68006749712566</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>58.87151144731232</v>
+        <v>52.41881697815339</v>
       </c>
       <c r="H24">
-        <v>15.80168089040417</v>
+        <v>19.38113793828048</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.448019919715462</v>
+        <v>9.945437191981346</v>
       </c>
       <c r="M24">
-        <v>16.09343065421143</v>
+        <v>17.48524165997996</v>
       </c>
       <c r="N24">
-        <v>12.32374502261516</v>
+        <v>19.93989038304162</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.52999417249298</v>
+        <v>21.06563369175585</v>
       </c>
       <c r="C25">
-        <v>16.36106166618244</v>
+        <v>9.733672434755558</v>
       </c>
       <c r="D25">
-        <v>7.861614346924346</v>
+        <v>6.185080510748433</v>
       </c>
       <c r="E25">
-        <v>6.921646529054468</v>
+        <v>10.68282819862018</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>54.06701534606431</v>
+        <v>51.45987123525389</v>
       </c>
       <c r="H25">
-        <v>15.00108085985826</v>
+        <v>19.33260279846728</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.267462006069883</v>
+        <v>9.956112576004024</v>
       </c>
       <c r="M25">
-        <v>14.66837692520394</v>
+        <v>17.30943422722794</v>
       </c>
       <c r="N25">
-        <v>12.81142773346209</v>
+        <v>20.06155321106856</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_138/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_138/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.45204894900344</v>
+        <v>24.16280449718346</v>
       </c>
       <c r="C2">
-        <v>9.080804078643411</v>
+        <v>15.02760972713844</v>
       </c>
       <c r="D2">
-        <v>6.018171943034317</v>
+        <v>7.152429908210648</v>
       </c>
       <c r="E2">
-        <v>10.68549349764371</v>
+        <v>6.911788110817419</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>50.79808072400368</v>
+        <v>50.52112693128261</v>
       </c>
       <c r="H2">
-        <v>19.31155231018177</v>
+        <v>14.44736314676399</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.968694094866992</v>
+        <v>6.145092043938168</v>
       </c>
       <c r="M2">
-        <v>17.19136353697392</v>
+        <v>13.76358427970279</v>
       </c>
       <c r="N2">
-        <v>20.15751439965944</v>
+        <v>13.18029443626853</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.03759347642024</v>
+        <v>22.52984335159269</v>
       </c>
       <c r="C3">
-        <v>8.606517243429112</v>
+        <v>14.06809133626623</v>
       </c>
       <c r="D3">
-        <v>5.906311185156739</v>
+        <v>6.640886944819438</v>
       </c>
       <c r="E3">
-        <v>10.68769380527232</v>
+        <v>6.906879900009745</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>50.37921649700017</v>
+        <v>48.11703241547499</v>
       </c>
       <c r="H3">
-        <v>19.30643426136705</v>
+        <v>14.09362274118988</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.980167639285536</v>
+        <v>6.068506492931803</v>
       </c>
       <c r="M3">
-        <v>17.11871649359626</v>
+        <v>13.13895631056304</v>
       </c>
       <c r="N3">
-        <v>20.22655325915195</v>
+        <v>13.43677451594736</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.78479836241165</v>
+        <v>21.52294087404238</v>
       </c>
       <c r="C4">
-        <v>8.299909035692977</v>
+        <v>13.45088775510968</v>
       </c>
       <c r="D4">
-        <v>5.838510401150267</v>
+        <v>6.311068795634083</v>
       </c>
       <c r="E4">
-        <v>10.68923898951661</v>
+        <v>6.90464238743616</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>50.13726530273155</v>
+        <v>46.64318040711484</v>
       </c>
       <c r="H4">
-        <v>19.30779418883041</v>
+        <v>13.88683832543408</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.988666276070864</v>
+        <v>6.024537068826032</v>
       </c>
       <c r="M4">
-        <v>17.07782932746373</v>
+        <v>12.75075173586322</v>
       </c>
       <c r="N4">
-        <v>20.27092681785572</v>
+        <v>13.59760289277727</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.6823605688284</v>
+        <v>21.10287577858587</v>
       </c>
       <c r="C5">
-        <v>8.171151691034046</v>
+        <v>13.19226372764594</v>
       </c>
       <c r="D5">
-        <v>5.811143086914735</v>
+        <v>6.188979513241175</v>
       </c>
       <c r="E5">
-        <v>10.68991747830264</v>
+        <v>6.903912749836065</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>50.04258518485096</v>
+        <v>46.0437048038704</v>
       </c>
       <c r="H5">
-        <v>19.30947872738004</v>
+        <v>13.80516409107971</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.99249515962582</v>
+        <v>6.007376519422598</v>
       </c>
       <c r="M5">
-        <v>17.06211428875167</v>
+        <v>12.59156003239146</v>
       </c>
       <c r="N5">
-        <v>20.28950918629425</v>
+        <v>13.66400548719258</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.66539034557965</v>
+        <v>21.03254104152948</v>
       </c>
       <c r="C6">
-        <v>8.149543370625448</v>
+        <v>13.14888890383283</v>
       </c>
       <c r="D6">
-        <v>5.806615765692714</v>
+        <v>6.169407009113371</v>
       </c>
       <c r="E6">
-        <v>10.69003308865582</v>
+        <v>6.90380224134777</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>50.02710255321645</v>
+        <v>45.94424923710523</v>
       </c>
       <c r="H6">
-        <v>19.30982664819498</v>
+        <v>13.79175789167026</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.993153025500126</v>
+        <v>6.004572444974525</v>
       </c>
       <c r="M6">
-        <v>17.05956232434637</v>
+        <v>12.56507220070125</v>
       </c>
       <c r="N6">
-        <v>20.29262499072463</v>
+        <v>13.675084400405</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.78341430284123</v>
+        <v>21.51731495666433</v>
       </c>
       <c r="C7">
-        <v>8.298187916509194</v>
+        <v>13.44742869924436</v>
       </c>
       <c r="D7">
-        <v>5.838140201834775</v>
+        <v>6.309218320918693</v>
       </c>
       <c r="E7">
-        <v>10.68924794221167</v>
+        <v>6.904631825920806</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>50.13597244640479</v>
+        <v>46.63509026532181</v>
       </c>
       <c r="H7">
-        <v>19.30781233335457</v>
+        <v>13.88572637901962</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.988716433343523</v>
+        <v>6.024302583567236</v>
       </c>
       <c r="M7">
-        <v>17.0776135407258</v>
+        <v>12.74860858660407</v>
       </c>
       <c r="N7">
-        <v>20.27117540126042</v>
+        <v>13.59849489501184</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.30888808680814</v>
+        <v>23.58497005114137</v>
       </c>
       <c r="C8">
-        <v>8.920496647093884</v>
+        <v>14.70255174005145</v>
       </c>
       <c r="D8">
-        <v>5.97944339899334</v>
+        <v>6.979273652501472</v>
       </c>
       <c r="E8">
-        <v>10.68621184968114</v>
+        <v>6.909926410112519</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>50.65054919362019</v>
+        <v>49.69202176055099</v>
       </c>
       <c r="H8">
-        <v>19.30885222968424</v>
+        <v>14.32321621400327</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.972348469157199</v>
+        <v>6.118044995221751</v>
       </c>
       <c r="M8">
-        <v>17.16555051286444</v>
+        <v>13.54928287832202</v>
       </c>
       <c r="N8">
-        <v>20.1809079654957</v>
+        <v>13.26804663146062</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.34599499923041</v>
+        <v>27.56465942291353</v>
       </c>
       <c r="C9">
-        <v>10.01669271051243</v>
+        <v>16.94477761475271</v>
       </c>
       <c r="D9">
-        <v>6.261777323931987</v>
+        <v>8.17162916753222</v>
       </c>
       <c r="E9">
-        <v>10.68179989444929</v>
+        <v>6.927133969114696</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>51.77629745687496</v>
+        <v>55.68693202441983</v>
       </c>
       <c r="H9">
-        <v>19.3466705289309</v>
+        <v>15.26508216190175</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.951783516331911</v>
+        <v>6.326604569043126</v>
       </c>
       <c r="M9">
-        <v>17.36692692663159</v>
+        <v>15.0760286662431</v>
       </c>
       <c r="N9">
-        <v>20.01958281151399</v>
+        <v>12.64567661065216</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.10333673494963</v>
+        <v>30.25505036737998</v>
       </c>
       <c r="C10">
-        <v>10.744379215463</v>
+        <v>18.46505998398642</v>
       </c>
       <c r="D10">
-        <v>6.470083413680575</v>
+        <v>8.978316219053609</v>
       </c>
       <c r="E10">
-        <v>10.67950023837797</v>
+        <v>6.945010983870035</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>52.66836121984847</v>
+        <v>60.07871577680841</v>
       </c>
       <c r="H10">
-        <v>19.39630257265729</v>
+        <v>16.0106602334681</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.94369933882586</v>
+        <v>6.495668810897494</v>
       </c>
       <c r="M10">
-        <v>17.53167642847173</v>
+        <v>16.48461720861388</v>
       </c>
       <c r="N10">
-        <v>19.91055200522152</v>
+        <v>12.20290065165592</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.44514116673391</v>
+        <v>31.43142120580411</v>
       </c>
       <c r="C11">
-        <v>11.05828449572994</v>
+        <v>19.13093758406434</v>
       </c>
       <c r="D11">
-        <v>6.564566443590675</v>
+        <v>9.331432075585964</v>
       </c>
       <c r="E11">
-        <v>10.67865904801015</v>
+        <v>6.954569607009921</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>53.08685630714874</v>
+        <v>62.07447076724678</v>
       </c>
       <c r="H11">
-        <v>19.42361812605316</v>
+        <v>16.36226385837787</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.941544660621208</v>
+        <v>6.576217671863114</v>
       </c>
       <c r="M11">
-        <v>17.61007210940384</v>
+        <v>17.11923638345175</v>
       </c>
       <c r="N11">
-        <v>19.86299814216598</v>
+        <v>12.00443637390871</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.57404878949514</v>
+        <v>31.8703588231186</v>
       </c>
       <c r="C12">
-        <v>11.17467474103094</v>
+        <v>19.3795770009312</v>
       </c>
       <c r="D12">
-        <v>6.60026767093104</v>
+        <v>9.463266823663457</v>
       </c>
       <c r="E12">
-        <v>10.6783700198756</v>
+        <v>6.958423291287243</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>53.24702683601242</v>
+        <v>62.83018205858055</v>
       </c>
       <c r="H12">
-        <v>19.43464114093575</v>
+        <v>16.49728549054915</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.940947388682874</v>
+        <v>6.607262773560054</v>
       </c>
       <c r="M12">
-        <v>17.64023625549864</v>
+        <v>17.3559052321739</v>
       </c>
       <c r="N12">
-        <v>19.84528376232135</v>
+        <v>11.9297020855032</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.5463117162963</v>
+        <v>31.77611083365553</v>
       </c>
       <c r="C13">
-        <v>11.14971848191016</v>
+        <v>19.32618112161063</v>
       </c>
       <c r="D13">
-        <v>6.592582798517665</v>
+        <v>9.434955710218876</v>
       </c>
       <c r="E13">
-        <v>10.67843095397409</v>
+        <v>6.957582410315896</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>53.21245793341404</v>
+        <v>62.66742162461164</v>
       </c>
       <c r="H13">
-        <v>19.43223697030815</v>
+        <v>16.46812098743652</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.941066302941081</v>
+        <v>6.600552152047536</v>
       </c>
       <c r="M13">
-        <v>17.63371894156528</v>
+        <v>17.30509354197118</v>
       </c>
       <c r="N13">
-        <v>19.8490858417183</v>
+        <v>11.945778779109</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.45575777357987</v>
+        <v>31.46766182342821</v>
       </c>
       <c r="C14">
-        <v>11.06790974977429</v>
+        <v>19.15146257525361</v>
       </c>
       <c r="D14">
-        <v>6.567505366769131</v>
+        <v>9.342315260477719</v>
       </c>
       <c r="E14">
-        <v>10.67863467776166</v>
+        <v>6.954881778676842</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>53.10000040521512</v>
+        <v>62.13664218265759</v>
       </c>
       <c r="H14">
-        <v>19.42451139827997</v>
+        <v>16.37333394890612</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.941491142583336</v>
+        <v>6.57876076274442</v>
       </c>
       <c r="M14">
-        <v>17.61254427431391</v>
+        <v>17.13877928567792</v>
       </c>
       <c r="N14">
-        <v>19.86153489710209</v>
+        <v>11.99827952743857</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.40021842559819</v>
+        <v>31.27788739975727</v>
       </c>
       <c r="C15">
-        <v>11.01747630564825</v>
+        <v>19.04399070618275</v>
       </c>
       <c r="D15">
-        <v>6.552133541508105</v>
+        <v>9.285328590259191</v>
       </c>
       <c r="E15">
-        <v>10.67876330917658</v>
+        <v>6.953258982420889</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>53.03133383094406</v>
+        <v>61.8115304792931</v>
       </c>
       <c r="H15">
-        <v>19.4198676411606</v>
+        <v>16.31552167165057</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.941779833985025</v>
+        <v>6.565484267551602</v>
       </c>
       <c r="M15">
-        <v>17.59963578059748</v>
+        <v>17.03643759135404</v>
       </c>
       <c r="N15">
-        <v>19.86919846755847</v>
+        <v>12.0304924004704</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.08093259386994</v>
+        <v>30.17724078050959</v>
       </c>
       <c r="C16">
-        <v>10.72351867779886</v>
+        <v>18.42104100105263</v>
       </c>
       <c r="D16">
-        <v>6.463899900802983</v>
+        <v>8.954969619413641</v>
       </c>
       <c r="E16">
-        <v>10.67955933957506</v>
+        <v>6.944417375392745</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>52.64125597206585</v>
+        <v>59.94826472419561</v>
       </c>
       <c r="H16">
-        <v>19.39461261181791</v>
+        <v>15.98793935191647</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.943870769473991</v>
+        <v>6.490479590233419</v>
       </c>
       <c r="M16">
-        <v>17.52662093215033</v>
+        <v>16.44262277748503</v>
       </c>
       <c r="N16">
-        <v>19.91370083929865</v>
+        <v>12.21592962806537</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.88426672510836</v>
+        <v>29.49006525923274</v>
       </c>
       <c r="C17">
-        <v>10.53878619363771</v>
+        <v>18.03241860085481</v>
       </c>
       <c r="D17">
-        <v>6.409673250521209</v>
+        <v>8.748831656905583</v>
       </c>
       <c r="E17">
-        <v>10.68010019690803</v>
+        <v>6.939377816286303</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>52.40511534837842</v>
+        <v>58.80480574190263</v>
       </c>
       <c r="H17">
-        <v>19.38033167183895</v>
+        <v>15.79021861462001</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.945543319450206</v>
+        <v>6.445411795709238</v>
       </c>
       <c r="M17">
-        <v>17.48269932781994</v>
+        <v>16.07164316285785</v>
       </c>
       <c r="N17">
-        <v>19.94152474482247</v>
+        <v>12.33044056390624</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.77090191609439</v>
+        <v>29.09032848133113</v>
       </c>
       <c r="C18">
-        <v>10.43092191030558</v>
+        <v>17.80646110438343</v>
       </c>
       <c r="D18">
-        <v>6.378459645243534</v>
+        <v>8.628955727155464</v>
       </c>
       <c r="E18">
-        <v>10.68043057042601</v>
+        <v>6.936611459701022</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>52.27049603093893</v>
+        <v>58.14689496473575</v>
       </c>
       <c r="H18">
-        <v>19.37256375784283</v>
+        <v>15.67765876938592</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.946648688138282</v>
+        <v>6.419831307186614</v>
       </c>
       <c r="M18">
-        <v>17.45776272073105</v>
+        <v>15.85574953388235</v>
       </c>
       <c r="N18">
-        <v>19.95772083189849</v>
+        <v>12.39658246751849</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.73248024929264</v>
+        <v>28.95420451837877</v>
       </c>
       <c r="C19">
-        <v>10.39412480596682</v>
+        <v>17.72953294376395</v>
       </c>
       <c r="D19">
-        <v>6.367888331861958</v>
+        <v>8.588139529930757</v>
       </c>
       <c r="E19">
-        <v>10.68054574046749</v>
+        <v>6.935696727263966</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>52.22512666157259</v>
+        <v>57.92409428141912</v>
       </c>
       <c r="H19">
-        <v>19.37001034523192</v>
+        <v>15.63974555234049</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.947047578399051</v>
+        <v>6.41122828259527</v>
       </c>
       <c r="M19">
-        <v>17.44937615140171</v>
+        <v>15.78221441889689</v>
       </c>
       <c r="N19">
-        <v>19.96323763776025</v>
+        <v>12.41902505009127</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.90522879903791</v>
+        <v>29.56367907510262</v>
       </c>
       <c r="C20">
-        <v>10.55861815458247</v>
+        <v>18.07403860636543</v>
       </c>
       <c r="D20">
-        <v>6.415448519083284</v>
+        <v>8.770910308311002</v>
       </c>
       <c r="E20">
-        <v>10.68004062531954</v>
+        <v>6.939900402061859</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>52.43012939060351</v>
+        <v>58.92655070491802</v>
       </c>
       <c r="H20">
-        <v>19.38180574471966</v>
+        <v>15.81114530645264</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.945350438362482</v>
+        <v>6.450173885838825</v>
       </c>
       <c r="M20">
-        <v>17.48734125735924</v>
+        <v>16.1113937391914</v>
       </c>
       <c r="N20">
-        <v>19.93854292417393</v>
+        <v>12.31822194498841</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.4823709904754</v>
+        <v>31.55843533275489</v>
       </c>
       <c r="C21">
-        <v>11.09200634213877</v>
+        <v>19.20287541740414</v>
       </c>
       <c r="D21">
-        <v>6.574873609814526</v>
+        <v>9.369576168089665</v>
       </c>
       <c r="E21">
-        <v>10.67857403783323</v>
+        <v>6.955668413558201</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>53.13298693905123</v>
+        <v>62.29254298261721</v>
       </c>
       <c r="H21">
-        <v>19.42676217271017</v>
+        <v>16.40112341988942</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.941360425511368</v>
+        <v>6.585146510085519</v>
       </c>
       <c r="M21">
-        <v>17.6187509842911</v>
+        <v>17.18772729258067</v>
       </c>
       <c r="N21">
-        <v>19.85787035569479</v>
+        <v>11.98284739424359</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.85644160246695</v>
+        <v>32.82424316163063</v>
       </c>
       <c r="C22">
-        <v>11.42615308736489</v>
+        <v>19.92025952816437</v>
       </c>
       <c r="D22">
-        <v>6.678599511037932</v>
+        <v>9.749925780158856</v>
       </c>
       <c r="E22">
-        <v>10.67778758096082</v>
+        <v>6.967354926953456</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>53.60216562040077</v>
+        <v>64.49245007980444</v>
       </c>
       <c r="H22">
-        <v>19.46010125572301</v>
+        <v>16.79771022994516</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.940027027223918</v>
+        <v>6.676536068580898</v>
       </c>
       <c r="M22">
-        <v>17.70740824768417</v>
+        <v>17.87000969460756</v>
       </c>
       <c r="N22">
-        <v>19.80685501831989</v>
+        <v>11.76611157447736</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.65712193277503</v>
+        <v>32.15201239863343</v>
       </c>
       <c r="C23">
-        <v>11.2491394489051</v>
+        <v>19.53917449905422</v>
       </c>
       <c r="D23">
-        <v>6.623293819017714</v>
+        <v>9.547885235230835</v>
       </c>
       <c r="E23">
-        <v>10.6781915709266</v>
+        <v>6.96098038502369</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>53.35090110036897</v>
+        <v>63.31817921646559</v>
       </c>
       <c r="H23">
-        <v>19.44194632674194</v>
+        <v>16.58500113971039</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.940622213543959</v>
+        <v>6.627461496587214</v>
       </c>
       <c r="M23">
-        <v>17.65984283322011</v>
+        <v>17.50773503356728</v>
       </c>
       <c r="N23">
-        <v>19.83392676277236</v>
+        <v>11.88156287441781</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.89575276627015</v>
+        <v>29.53041283853493</v>
       </c>
       <c r="C24">
-        <v>10.54965729150977</v>
+        <v>18.05523010595421</v>
       </c>
       <c r="D24">
-        <v>6.412837635591766</v>
+        <v>8.760932808101018</v>
       </c>
       <c r="E24">
-        <v>10.68006749712566</v>
+        <v>6.939663735260448</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>52.41881697815339</v>
+        <v>58.87151144731233</v>
       </c>
       <c r="H24">
-        <v>19.38113793828048</v>
+        <v>15.80168089040415</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.945437191981346</v>
+        <v>6.448019919715533</v>
       </c>
       <c r="M24">
-        <v>17.48524165997996</v>
+        <v>16.09343065421147</v>
       </c>
       <c r="N24">
-        <v>19.93989038304162</v>
+        <v>12.32374502261514</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.06563369175585</v>
+        <v>26.52999417249295</v>
       </c>
       <c r="C25">
-        <v>9.733672434755558</v>
+        <v>16.36106166618231</v>
       </c>
       <c r="D25">
-        <v>6.185080510748433</v>
+        <v>7.861614346924396</v>
       </c>
       <c r="E25">
-        <v>10.68282819862018</v>
+        <v>6.921646529054469</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>51.45987123525389</v>
+        <v>54.06701534606426</v>
       </c>
       <c r="H25">
-        <v>19.33260279846728</v>
+        <v>15.00108085985826</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.956112576004024</v>
+        <v>6.267462006069977</v>
       </c>
       <c r="M25">
-        <v>17.30943422722794</v>
+        <v>14.66837692520395</v>
       </c>
       <c r="N25">
-        <v>20.06155321106856</v>
+        <v>12.81142773346214</v>
       </c>
       <c r="O25">
         <v>0</v>
